--- a/File_for_Import/Reports/Измеряемые параметры ГПА3.xlsx
+++ b/File_for_Import/Reports/Измеряемые параметры ГПА3.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
@@ -85,7 +85,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -466,9 +469,10 @@
     <col hidden="1" width="13" customWidth="1" min="1" max="1"/>
     <col hidden="1" width="13" customWidth="1" min="2" max="2"/>
     <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
-    <col width="100" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="105" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
@@ -517,7 +521,7 @@
         <v/>
       </c>
       <c r="G3" s="4">
-        <f>"Ед. измерения"</f>
+        <f>"Ед. изм."</f>
         <v/>
       </c>
     </row>
@@ -538,7 +542,7 @@
         <f>"1"</f>
         <v/>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <f>"Частота вращения ротора КВД (т.1)  "</f>
         <v/>
       </c>
@@ -568,7 +572,7 @@
         <f>"2"</f>
         <v/>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <f>"Частота вращения ротора КНД (т.1)  "</f>
         <v/>
       </c>
@@ -598,7 +602,7 @@
         <f>"3"</f>
         <v/>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <f>"Частота вращения ротора СТ (т.1)  "</f>
         <v/>
       </c>
@@ -628,7 +632,7 @@
         <f>"4"</f>
         <v/>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <f>"Частота вращения ротора КВД (т.2)  "</f>
         <v/>
       </c>
@@ -658,7 +662,7 @@
         <f>"5"</f>
         <v/>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <f>"Частота вращения ротора КНД (т.2)  "</f>
         <v/>
       </c>
@@ -688,7 +692,7 @@
         <f>"6"</f>
         <v/>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <f>"Частота вращения ротора СТ (т.2)  "</f>
         <v/>
       </c>
@@ -718,7 +722,7 @@
         <f>"7"</f>
         <v/>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <f>"Температура воздуха на входе в двигатель  "</f>
         <v/>
       </c>
@@ -748,7 +752,7 @@
         <f>"8"</f>
         <v/>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <f>"Температура масла на входе в Д  "</f>
         <v/>
       </c>
@@ -778,7 +782,7 @@
         <f>"9"</f>
         <v/>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <f>"Температура масла на выходе из опоры ш/п КВД  "</f>
         <v/>
       </c>
@@ -808,7 +812,7 @@
         <f>"10"</f>
         <v/>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <f>"Температура масла на выходе из опоры р/п ТВД  "</f>
         <v/>
       </c>
@@ -838,7 +842,7 @@
         <f>"11"</f>
         <v/>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <f>"Температура масла на выходе из опоры р/п ТНД  "</f>
         <v/>
       </c>
@@ -868,7 +872,7 @@
         <f>"12"</f>
         <v/>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <f>"Температура масла на выходе из опор СТ  "</f>
         <v/>
       </c>
@@ -898,7 +902,7 @@
         <f>"13"</f>
         <v/>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <f>"Температура воздуха после ВВТ 1 агрегата БВВТ-25  "</f>
         <v/>
       </c>
@@ -928,7 +932,7 @@
         <f>"14"</f>
         <v/>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <f>"Температура топливного газа на входе в СК0  "</f>
         <v/>
       </c>
@@ -958,7 +962,7 @@
         <f>"15"</f>
         <v/>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <f>"Температура топливного газа на входе в диффузионный коллектор 1  "</f>
         <v/>
       </c>
@@ -988,7 +992,7 @@
         <f>"16"</f>
         <v/>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <f>"Температура топливного газа на входе в диффузионный коллектор 2  "</f>
         <v/>
       </c>
@@ -1018,7 +1022,7 @@
         <f>"17"</f>
         <v/>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <f>"Температура воздуха на выходе из теплообменника  "</f>
         <v/>
       </c>
@@ -1031,79 +1035,79 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="35" customHeight="1">
-      <c r="E23" s="7">
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C21" s="5">
+        <f>"AI.AI_Tv_outK"</f>
+        <v/>
+      </c>
+      <c r="D21" s="6">
+        <f>"18"</f>
+        <v/>
+      </c>
+      <c r="E21" s="7">
+        <f>"Температура воздуха за КВД  "</f>
+        <v/>
+      </c>
+      <c r="F21" s="6">
+        <f>CurrAttrValue(B21, 0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="6">
+        <f>CurrAttrValue(A21, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="E24" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="40" customHeight="1">
-      <c r="E24" s="1">
+    <row r="25" ht="40" customHeight="1">
+      <c r="E25" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="D26" s="4">
+    <row r="27" ht="20" customHeight="1">
+      <c r="D27" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G26" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="5">
-        <f>CONCATENATE($A$2, $A$1, C27, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B27" s="5">
-        <f>CONCATENATE($A$2, $A$1, C27, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C27" s="5">
-        <f>"AI.AI_Tv_outK"</f>
-        <v/>
-      </c>
-      <c r="D27" s="6">
-        <f>"18"</f>
-        <v/>
-      </c>
-      <c r="E27" s="5">
-        <f>"Температура воздуха за КВД  "</f>
-        <v/>
-      </c>
-      <c r="F27" s="6">
-        <f>CurrAttrValue(B27, 0)</f>
-        <v/>
-      </c>
-      <c r="G27" s="6">
-        <f>CurrAttrValue(A27, 0)</f>
+      <c r="G27" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1128,7 @@
         <f>"19"</f>
         <v/>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <f>"Температура газа за ТВД на запуске (т.1)  "</f>
         <v/>
       </c>
@@ -1154,7 +1158,7 @@
         <f>"20"</f>
         <v/>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <f>"Температура газа за ТВД на запуске (т.2)  "</f>
         <v/>
       </c>
@@ -1184,7 +1188,7 @@
         <f>"21"</f>
         <v/>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <f>"Температура газа за ТВД (канал 1)  "</f>
         <v/>
       </c>
@@ -1214,7 +1218,7 @@
         <f>"22"</f>
         <v/>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <f>"Температура газа за ТВД (канал 2)  "</f>
         <v/>
       </c>
@@ -1244,7 +1248,7 @@
         <f>"23"</f>
         <v/>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <f>"Температура газа за ТВД (канал 3)  "</f>
         <v/>
       </c>
@@ -1274,7 +1278,7 @@
         <f>"24"</f>
         <v/>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="7">
         <f>"Температура газа за ТВД (канал 4)  "</f>
         <v/>
       </c>
@@ -1304,7 +1308,7 @@
         <f>"25"</f>
         <v/>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <f>"Температура газа за ТВД (канал 5)  "</f>
         <v/>
       </c>
@@ -1334,7 +1338,7 @@
         <f>"26"</f>
         <v/>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <f>"Температура газа за ТВД (канал 6)  "</f>
         <v/>
       </c>
@@ -1364,7 +1368,7 @@
         <f>"27"</f>
         <v/>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <f>"Температура газа за ТВД (канал 7)  "</f>
         <v/>
       </c>
@@ -1394,7 +1398,7 @@
         <f>"28"</f>
         <v/>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <f>"Температура газа за ТВД (канал 8)  "</f>
         <v/>
       </c>
@@ -1424,7 +1428,7 @@
         <f>"29"</f>
         <v/>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <f>"Температура газа за ТВД (канал 9)  "</f>
         <v/>
       </c>
@@ -1454,7 +1458,7 @@
         <f>"30"</f>
         <v/>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <f>"Температура газа за ТВД (канал 10)  "</f>
         <v/>
       </c>
@@ -1484,7 +1488,7 @@
         <f>"31"</f>
         <v/>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <f>"Температура газа за ТВД (канал 11)  "</f>
         <v/>
       </c>
@@ -1514,7 +1518,7 @@
         <f>"32"</f>
         <v/>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="7">
         <f>"Температура газа за ТВД (канал 12)  "</f>
         <v/>
       </c>
@@ -1544,7 +1548,7 @@
         <f>"33"</f>
         <v/>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="7">
         <f>"Температура газа за СТ (канал 1)  "</f>
         <v/>
       </c>
@@ -1574,7 +1578,7 @@
         <f>"34"</f>
         <v/>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="7">
         <f>"Температура газа за СТ (канал 2)  "</f>
         <v/>
       </c>
@@ -1587,109 +1591,109 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="35" customHeight="1">
-      <c r="E46" s="7">
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C44" s="5">
+        <f>"AI.AI_Tst_3"</f>
+        <v/>
+      </c>
+      <c r="D44" s="6">
+        <f>"35"</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>"Температура газа за СТ (канал 3)  "</f>
+        <v/>
+      </c>
+      <c r="F44" s="6">
+        <f>CurrAttrValue(B44, 0)</f>
+        <v/>
+      </c>
+      <c r="G44" s="6">
+        <f>CurrAttrValue(A44, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C45" s="5">
+        <f>"AI.AI_Tst_4"</f>
+        <v/>
+      </c>
+      <c r="D45" s="6">
+        <f>"36"</f>
+        <v/>
+      </c>
+      <c r="E45" s="7">
+        <f>"Температура газа за СТ (канал 4)  "</f>
+        <v/>
+      </c>
+      <c r="F45" s="6">
+        <f>CurrAttrValue(B45, 0)</f>
+        <v/>
+      </c>
+      <c r="G45" s="6">
+        <f>CurrAttrValue(A45, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="35" customHeight="1">
+      <c r="E48" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F46" s="7">
+      <c r="F48" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G46" s="7">
+      <c r="G48" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="40" customHeight="1">
-      <c r="E47" s="1">
+    <row r="49" ht="40" customHeight="1">
+      <c r="E49" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F47" s="2">
+      <c r="F49" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G47" s="3">
+      <c r="G49" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1">
-      <c r="D49" s="4">
+    <row r="51" ht="20" customHeight="1">
+      <c r="D51" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E49" s="4">
+      <c r="E51" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F49" s="4">
+      <c r="F51" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G49" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="5">
-        <f>CONCATENATE($A$2, $A$1, C50, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B50" s="5">
-        <f>CONCATENATE($A$2, $A$1, C50, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C50" s="5">
-        <f>"AI.AI_Tst_3"</f>
-        <v/>
-      </c>
-      <c r="D50" s="6">
-        <f>"35"</f>
-        <v/>
-      </c>
-      <c r="E50" s="5">
-        <f>"Температура газа за СТ (канал 3)  "</f>
-        <v/>
-      </c>
-      <c r="F50" s="6">
-        <f>CurrAttrValue(B50, 0)</f>
-        <v/>
-      </c>
-      <c r="G50" s="6">
-        <f>CurrAttrValue(A50, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="5">
-        <f>CONCATENATE($A$2, $A$1, C51, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B51" s="5">
-        <f>CONCATENATE($A$2, $A$1, C51, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C51" s="5">
-        <f>"AI.AI_Tst_4"</f>
-        <v/>
-      </c>
-      <c r="D51" s="6">
-        <f>"36"</f>
-        <v/>
-      </c>
-      <c r="E51" s="5">
-        <f>"Температура газа за СТ (канал 4)  "</f>
-        <v/>
-      </c>
-      <c r="F51" s="6">
-        <f>CurrAttrValue(B51, 0)</f>
-        <v/>
-      </c>
-      <c r="G51" s="6">
-        <f>CurrAttrValue(A51, 0)</f>
+      <c r="G51" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -1710,7 +1714,7 @@
         <f>"37"</f>
         <v/>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="7">
         <f>"Температура газа за СТ (канал 5)  "</f>
         <v/>
       </c>
@@ -1740,7 +1744,7 @@
         <f>"38"</f>
         <v/>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="7">
         <f>"Температура газа за СТ (канал 6)  "</f>
         <v/>
       </c>
@@ -1770,7 +1774,7 @@
         <f>"39"</f>
         <v/>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="7">
         <f>"Температура газа за СТ (канал 7)  "</f>
         <v/>
       </c>
@@ -1800,7 +1804,7 @@
         <f>"40"</f>
         <v/>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="7">
         <f>"Температура газа за СТ (канал 8)  "</f>
         <v/>
       </c>
@@ -1830,7 +1834,7 @@
         <f>"41"</f>
         <v/>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="7">
         <f>"Температура газа за СТ (канал 9)  "</f>
         <v/>
       </c>
@@ -1860,7 +1864,7 @@
         <f>"42"</f>
         <v/>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="7">
         <f>"Температура газа за СТ (канал 10)  "</f>
         <v/>
       </c>
@@ -1890,7 +1894,7 @@
         <f>"43"</f>
         <v/>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="7">
         <f>"Температура газа за СТ (канал 11)  "</f>
         <v/>
       </c>
@@ -1920,7 +1924,7 @@
         <f>"44"</f>
         <v/>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="7">
         <f>"Температура газа за СТ (канал 12)  "</f>
         <v/>
       </c>
@@ -1950,7 +1954,7 @@
         <f>"45"</f>
         <v/>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="7">
         <f>"Перепад между Ратм. и полным Рв  "</f>
         <v/>
       </c>
@@ -1980,7 +1984,7 @@
         <f>"46"</f>
         <v/>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="7">
         <f>"Перепад между Ратм. и статическим Рв  "</f>
         <v/>
       </c>
@@ -2010,7 +2014,7 @@
         <f>"47"</f>
         <v/>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="7">
         <f>"Полное давление воздуха за КНД  "</f>
         <v/>
       </c>
@@ -2040,7 +2044,7 @@
         <f>"48"</f>
         <v/>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="7">
         <f>"Давление воздуха за КВД  "</f>
         <v/>
       </c>
@@ -2070,7 +2074,7 @@
         <f>"49"</f>
         <v/>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="7">
         <f>"Перепад между Ратм. и полным Р  "</f>
         <v/>
       </c>
@@ -2100,7 +2104,7 @@
         <f>"50"</f>
         <v/>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="7">
         <f>"Давление воздуха в разгрузочной полости КВД  "</f>
         <v/>
       </c>
@@ -2130,7 +2134,7 @@
         <f>"51"</f>
         <v/>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="7">
         <f>"Давление воздуха в разгрузочной полости СТ  "</f>
         <v/>
       </c>
@@ -2143,139 +2147,139 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="35" customHeight="1">
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C67" s="5">
+        <f>"AI.AI_P_ohlTND"</f>
+        <v/>
+      </c>
+      <c r="D67" s="6">
+        <f>"52"</f>
+        <v/>
+      </c>
+      <c r="E67" s="7">
+        <f>"Давление воздуха охлаждения ТНД  "</f>
+        <v/>
+      </c>
+      <c r="F67" s="6">
+        <f>CurrAttrValue(B67, 0)</f>
+        <v/>
+      </c>
+      <c r="G67" s="6">
+        <f>CurrAttrValue(A67, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C68" s="5">
+        <f>"AI.AI_Pm_inGTU"</f>
+        <v/>
+      </c>
+      <c r="D68" s="6">
+        <f>"53"</f>
+        <v/>
+      </c>
+      <c r="E68" s="7">
+        <f>"Давление масла на входе в Д  "</f>
+        <v/>
+      </c>
+      <c r="F68" s="6">
+        <f>CurrAttrValue(B68, 0)</f>
+        <v/>
+      </c>
+      <c r="G68" s="6">
+        <f>CurrAttrValue(A68, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="5">
+        <f>CONCATENATE($A$2, $A$1, C69, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B69" s="5">
+        <f>CONCATENATE($A$2, $A$1, C69, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C69" s="5">
+        <f>"AI.AI_Psufl"</f>
+        <v/>
+      </c>
+      <c r="D69" s="6">
+        <f>"54"</f>
+        <v/>
+      </c>
       <c r="E69" s="7">
+        <f>"Давление суфлирования  "</f>
+        <v/>
+      </c>
+      <c r="F69" s="6">
+        <f>CurrAttrValue(B69, 0)</f>
+        <v/>
+      </c>
+      <c r="G69" s="6">
+        <f>CurrAttrValue(A69, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" ht="35" customHeight="1">
+      <c r="E72" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F69" s="7">
+      <c r="F72" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G69" s="7">
+      <c r="G72" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="70" ht="40" customHeight="1">
-      <c r="E70" s="1">
+    <row r="73" ht="40" customHeight="1">
+      <c r="E73" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F70" s="2">
+      <c r="F73" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G70" s="3">
+      <c r="G73" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="D72" s="4">
+    <row r="75" ht="20" customHeight="1">
+      <c r="D75" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E72" s="4">
+      <c r="E75" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F72" s="4">
+      <c r="F75" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G72" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="5">
-        <f>CONCATENATE($A$2, $A$1, C73, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B73" s="5">
-        <f>CONCATENATE($A$2, $A$1, C73, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C73" s="5">
-        <f>"AI.AI_P_ohlTND"</f>
-        <v/>
-      </c>
-      <c r="D73" s="6">
-        <f>"52"</f>
-        <v/>
-      </c>
-      <c r="E73" s="5">
-        <f>"Давление воздуха охлаждения ТНД  "</f>
-        <v/>
-      </c>
-      <c r="F73" s="6">
-        <f>CurrAttrValue(B73, 0)</f>
-        <v/>
-      </c>
-      <c r="G73" s="6">
-        <f>CurrAttrValue(A73, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="5">
-        <f>CONCATENATE($A$2, $A$1, C74, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B74" s="5">
-        <f>CONCATENATE($A$2, $A$1, C74, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C74" s="5">
-        <f>"AI.AI_Pm_inGTU"</f>
-        <v/>
-      </c>
-      <c r="D74" s="6">
-        <f>"53"</f>
-        <v/>
-      </c>
-      <c r="E74" s="5">
-        <f>"Давление масла на входе в Д  "</f>
-        <v/>
-      </c>
-      <c r="F74" s="6">
-        <f>CurrAttrValue(B74, 0)</f>
-        <v/>
-      </c>
-      <c r="G74" s="6">
-        <f>CurrAttrValue(A74, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="5">
-        <f>CONCATENATE($A$2, $A$1, C75, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B75" s="5">
-        <f>CONCATENATE($A$2, $A$1, C75, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C75" s="5">
-        <f>"AI.AI_Psufl"</f>
-        <v/>
-      </c>
-      <c r="D75" s="6">
-        <f>"54"</f>
-        <v/>
-      </c>
-      <c r="E75" s="5">
-        <f>"Давление суфлирования  "</f>
-        <v/>
-      </c>
-      <c r="F75" s="6">
-        <f>CurrAttrValue(B75, 0)</f>
-        <v/>
-      </c>
-      <c r="G75" s="6">
-        <f>CurrAttrValue(A75, 0)</f>
+      <c r="G75" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -2296,7 +2300,7 @@
         <f>"55"</f>
         <v/>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="7">
         <f>"Давление топливного газа на входе в СК0  "</f>
         <v/>
       </c>
@@ -2326,7 +2330,7 @@
         <f>"56"</f>
         <v/>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="7">
         <f>"Давление топливного газа на входе в ДГ гомогенного коллектора  "</f>
         <v/>
       </c>
@@ -2356,7 +2360,7 @@
         <f>"57"</f>
         <v/>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="7">
         <f>"Давление топливного газа на входе в ДГ диффузионных коллекторов  "</f>
         <v/>
       </c>
@@ -2386,7 +2390,7 @@
         <f>"58"</f>
         <v/>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="7">
         <f>"Давление топливного газа на входе в ДГ центрального модуля  "</f>
         <v/>
       </c>
@@ -2416,7 +2420,7 @@
         <f>"59"</f>
         <v/>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="7">
         <f>"Давление топливного газа на выходе из ДГ гомогенного коллектора  "</f>
         <v/>
       </c>
@@ -2446,7 +2450,7 @@
         <f>"60"</f>
         <v/>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="7">
         <f>"Давление топливного газа на выходе из ДГ диффузионных коллекторов  "</f>
         <v/>
       </c>
@@ -2476,7 +2480,7 @@
         <f>"61"</f>
         <v/>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="7">
         <f>"Давление топливного газа на выходе из ДГ центрального модуля  "</f>
         <v/>
       </c>
@@ -2506,7 +2510,7 @@
         <f>"62"</f>
         <v/>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="7">
         <f>"Давление воздуха отбираемого из-за КВД на охлаждение ДК  "</f>
         <v/>
       </c>
@@ -2536,7 +2540,7 @@
         <f>"63"</f>
         <v/>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="7">
         <f>"Контроль катушки 1 ВНА  "</f>
         <v/>
       </c>
@@ -2566,7 +2570,7 @@
         <f>"64"</f>
         <v/>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="7">
         <f>"Контроль катушки 2 ВНА  "</f>
         <v/>
       </c>
@@ -2596,7 +2600,7 @@
         <f>"65"</f>
         <v/>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="7">
         <f>"Общий контроль выходов ВНА  "</f>
         <v/>
       </c>
@@ -2626,7 +2630,7 @@
         <f>"66"</f>
         <v/>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="7">
         <f>"Положение дозатора газа дифузионных коллекторов  "</f>
         <v/>
       </c>
@@ -2656,7 +2660,7 @@
         <f>"67"</f>
         <v/>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="7">
         <f>"Положение дозатора газа гомогенного коллектора  "</f>
         <v/>
       </c>
@@ -2686,7 +2690,7 @@
         <f>"68"</f>
         <v/>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="7">
         <f>"Положение дозатора газа центрального контура  "</f>
         <v/>
       </c>
@@ -2699,169 +2703,169 @@
         <v/>
       </c>
     </row>
-    <row r="92" ht="35" customHeight="1">
+    <row r="90" ht="20" customHeight="1">
+      <c r="A90" s="5">
+        <f>CONCATENATE($A$2, $A$1, C90, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B90" s="5">
+        <f>CONCATENATE($A$2, $A$1, C90, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C90" s="5">
+        <f>"AI.AI_Qtg_sum"</f>
+        <v/>
+      </c>
+      <c r="D90" s="6">
+        <f>"69"</f>
+        <v/>
+      </c>
+      <c r="E90" s="7">
+        <f>"Суммарный расход топливного газа  "</f>
+        <v/>
+      </c>
+      <c r="F90" s="6">
+        <f>CurrAttrValue(B90, 0)</f>
+        <v/>
+      </c>
+      <c r="G90" s="6">
+        <f>CurrAttrValue(A90, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" ht="20" customHeight="1">
+      <c r="A91" s="5">
+        <f>CONCATENATE($A$2, $A$1, C91, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B91" s="5">
+        <f>CONCATENATE($A$2, $A$1, C91, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C91" s="5">
+        <f>"AI.AI_Qtg_Kcm"</f>
+        <v/>
+      </c>
+      <c r="D91" s="6">
+        <f>"70"</f>
+        <v/>
+      </c>
+      <c r="E91" s="7">
+        <f>"Расход топливного газа через центральный модуль  "</f>
+        <v/>
+      </c>
+      <c r="F91" s="6">
+        <f>CurrAttrValue(B91, 0)</f>
+        <v/>
+      </c>
+      <c r="G91" s="6">
+        <f>CurrAttrValue(A91, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1">
+      <c r="A92" s="5">
+        <f>CONCATENATE($A$2, $A$1, C92, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B92" s="5">
+        <f>CONCATENATE($A$2, $A$1, C92, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C92" s="5">
+        <f>"AI.AI_Qtg_gk"</f>
+        <v/>
+      </c>
+      <c r="D92" s="6">
+        <f>"71"</f>
+        <v/>
+      </c>
       <c r="E92" s="7">
+        <f>"Расход топливного газа через гомогенный коллектор  "</f>
+        <v/>
+      </c>
+      <c r="F92" s="6">
+        <f>CurrAttrValue(B92, 0)</f>
+        <v/>
+      </c>
+      <c r="G92" s="6">
+        <f>CurrAttrValue(A92, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" ht="20" customHeight="1">
+      <c r="A93" s="5">
+        <f>CONCATENATE($A$2, $A$1, C93, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B93" s="5">
+        <f>CONCATENATE($A$2, $A$1, C93, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C93" s="5">
+        <f>"AI.AI_Qtg_dk"</f>
+        <v/>
+      </c>
+      <c r="D93" s="6">
+        <f>"72"</f>
+        <v/>
+      </c>
+      <c r="E93" s="7">
+        <f>"Расход топливного газа через диффузионные коллекторы  "</f>
+        <v/>
+      </c>
+      <c r="F93" s="6">
+        <f>CurrAttrValue(B93, 0)</f>
+        <v/>
+      </c>
+      <c r="G93" s="6">
+        <f>CurrAttrValue(A93, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" ht="35" customHeight="1">
+      <c r="E96" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F92" s="7">
+      <c r="F96" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G92" s="7">
+      <c r="G96" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="93" ht="40" customHeight="1">
-      <c r="E93" s="1">
+    <row r="97" ht="40" customHeight="1">
+      <c r="E97" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F93" s="2">
+      <c r="F97" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G93" s="3">
+      <c r="G97" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="95" ht="20" customHeight="1">
-      <c r="D95" s="4">
+    <row r="99" ht="20" customHeight="1">
+      <c r="D99" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E95" s="4">
+      <c r="E99" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F95" s="4">
+      <c r="F99" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G95" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" ht="20" customHeight="1">
-      <c r="A96" s="5">
-        <f>CONCATENATE($A$2, $A$1, C96, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B96" s="5">
-        <f>CONCATENATE($A$2, $A$1, C96, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C96" s="5">
-        <f>"AI.AI_Qtg_sum"</f>
-        <v/>
-      </c>
-      <c r="D96" s="6">
-        <f>"69"</f>
-        <v/>
-      </c>
-      <c r="E96" s="5">
-        <f>"Суммарный расход топливного газа  "</f>
-        <v/>
-      </c>
-      <c r="F96" s="6">
-        <f>CurrAttrValue(B96, 0)</f>
-        <v/>
-      </c>
-      <c r="G96" s="6">
-        <f>CurrAttrValue(A96, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" ht="20" customHeight="1">
-      <c r="A97" s="5">
-        <f>CONCATENATE($A$2, $A$1, C97, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B97" s="5">
-        <f>CONCATENATE($A$2, $A$1, C97, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C97" s="5">
-        <f>"AI.AI_Qtg_Kcm"</f>
-        <v/>
-      </c>
-      <c r="D97" s="6">
-        <f>"70"</f>
-        <v/>
-      </c>
-      <c r="E97" s="5">
-        <f>"Расход топливного газа через центральный модуль  "</f>
-        <v/>
-      </c>
-      <c r="F97" s="6">
-        <f>CurrAttrValue(B97, 0)</f>
-        <v/>
-      </c>
-      <c r="G97" s="6">
-        <f>CurrAttrValue(A97, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" ht="20" customHeight="1">
-      <c r="A98" s="5">
-        <f>CONCATENATE($A$2, $A$1, C98, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B98" s="5">
-        <f>CONCATENATE($A$2, $A$1, C98, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C98" s="5">
-        <f>"AI.AI_Qtg_gk"</f>
-        <v/>
-      </c>
-      <c r="D98" s="6">
-        <f>"71"</f>
-        <v/>
-      </c>
-      <c r="E98" s="5">
-        <f>"Расход топливного газа через гомогенный коллектор  "</f>
-        <v/>
-      </c>
-      <c r="F98" s="6">
-        <f>CurrAttrValue(B98, 0)</f>
-        <v/>
-      </c>
-      <c r="G98" s="6">
-        <f>CurrAttrValue(A98, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" ht="20" customHeight="1">
-      <c r="A99" s="5">
-        <f>CONCATENATE($A$2, $A$1, C99, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B99" s="5">
-        <f>CONCATENATE($A$2, $A$1, C99, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C99" s="5">
-        <f>"AI.AI_Qtg_dk"</f>
-        <v/>
-      </c>
-      <c r="D99" s="6">
-        <f>"72"</f>
-        <v/>
-      </c>
-      <c r="E99" s="5">
-        <f>"Расход топливного газа через диффузионные коллекторы  "</f>
-        <v/>
-      </c>
-      <c r="F99" s="6">
-        <f>CurrAttrValue(B99, 0)</f>
-        <v/>
-      </c>
-      <c r="G99" s="6">
-        <f>CurrAttrValue(A99, 0)</f>
+      <c r="G99" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -2882,7 +2886,7 @@
         <f>"73"</f>
         <v/>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="7">
         <f>"Полное давление воздуха за ТВД  "</f>
         <v/>
       </c>
@@ -2912,7 +2916,7 @@
         <f>"74"</f>
         <v/>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="7">
         <f>"Положение крана № 6р (АПК)  "</f>
         <v/>
       </c>
@@ -2942,7 +2946,7 @@
         <f>"75"</f>
         <v/>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="7">
         <f>"Давление воздуха после ВВТ 1 агрегата БВВТ-25  "</f>
         <v/>
       </c>
@@ -2972,7 +2976,7 @@
         <f>"76"</f>
         <v/>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="7">
         <f>"Давление газа после Н  "</f>
         <v/>
       </c>
@@ -3002,7 +3006,7 @@
         <f>"77"</f>
         <v/>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="7">
         <f>"Перепад давления газа на конфузоре  "</f>
         <v/>
       </c>
@@ -3032,7 +3036,7 @@
         <f>"78"</f>
         <v/>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="7">
         <f>"Давление пускового газа перед заслонкой СтВ  "</f>
         <v/>
       </c>
@@ -3062,7 +3066,7 @@
         <f>"79"</f>
         <v/>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="7">
         <f>"Положение КПВВ  "</f>
         <v/>
       </c>
@@ -3092,7 +3096,7 @@
         <f>"80"</f>
         <v/>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="7">
         <f>"Давление воздуха после КПВВ  "</f>
         <v/>
       </c>
@@ -3122,7 +3126,7 @@
         <f>"81"</f>
         <v/>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="7">
         <f>"Температура воздуха за КПВВ  "</f>
         <v/>
       </c>
@@ -3152,7 +3156,7 @@
         <f>"82"</f>
         <v/>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="7">
         <f>"Массовый Qв в системе перепуска воздуха из корпуса КС на вход Д  "</f>
         <v/>
       </c>
@@ -3182,7 +3186,7 @@
         <f>"83"</f>
         <v/>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="7">
         <f>"Температура масла в маслобаке ГТУ  "</f>
         <v/>
       </c>
@@ -3212,7 +3216,7 @@
         <f>"84"</f>
         <v/>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="7">
         <f>"Температура переднего опорного подшипника Н  "</f>
         <v/>
       </c>
@@ -3242,7 +3246,7 @@
         <f>"85"</f>
         <v/>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="7">
         <f>"Температура заднего опорного подшипника Н  "</f>
         <v/>
       </c>
@@ -3255,199 +3259,199 @@
         <v/>
       </c>
     </row>
-    <row r="115" ht="35" customHeight="1">
+    <row r="113" ht="20" customHeight="1">
+      <c r="A113" s="5">
+        <f>CONCATENATE($A$2, $A$1, C113, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B113" s="5">
+        <f>CONCATENATE($A$2, $A$1, C113, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C113" s="5">
+        <f>"AI.AI_TpupN"</f>
+        <v/>
+      </c>
+      <c r="D113" s="6">
+        <f>"86"</f>
+        <v/>
+      </c>
+      <c r="E113" s="7">
+        <f>"Температура передней колодки упорного подшипника Н  "</f>
+        <v/>
+      </c>
+      <c r="F113" s="6">
+        <f>CurrAttrValue(B113, 0)</f>
+        <v/>
+      </c>
+      <c r="G113" s="6">
+        <f>CurrAttrValue(A113, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" ht="20" customHeight="1">
+      <c r="A114" s="5">
+        <f>CONCATENATE($A$2, $A$1, C114, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B114" s="5">
+        <f>CONCATENATE($A$2, $A$1, C114, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C114" s="5">
+        <f>"AI.AI_TzupN"</f>
+        <v/>
+      </c>
+      <c r="D114" s="6">
+        <f>"87"</f>
+        <v/>
+      </c>
+      <c r="E114" s="7">
+        <f>"Температура задней колодки упорного подшипника Н  "</f>
+        <v/>
+      </c>
+      <c r="F114" s="6">
+        <f>CurrAttrValue(B114, 0)</f>
+        <v/>
+      </c>
+      <c r="G114" s="6">
+        <f>CurrAttrValue(A114, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" ht="20" customHeight="1">
+      <c r="A115" s="5">
+        <f>CONCATENATE($A$2, $A$1, C115, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B115" s="5">
+        <f>CONCATENATE($A$2, $A$1, C115, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C115" s="5">
+        <f>"AI.AI_Tg_inN"</f>
+        <v/>
+      </c>
+      <c r="D115" s="6">
+        <f>"88"</f>
+        <v/>
+      </c>
       <c r="E115" s="7">
+        <f>"Температура газа на входе Н   "</f>
+        <v/>
+      </c>
+      <c r="F115" s="6">
+        <f>CurrAttrValue(B115, 0)</f>
+        <v/>
+      </c>
+      <c r="G115" s="6">
+        <f>CurrAttrValue(A115, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" ht="20" customHeight="1">
+      <c r="A116" s="5">
+        <f>CONCATENATE($A$2, $A$1, C116, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B116" s="5">
+        <f>CONCATENATE($A$2, $A$1, C116, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C116" s="5">
+        <f>"AI.AI_Tg_outN"</f>
+        <v/>
+      </c>
+      <c r="D116" s="6">
+        <f>"89"</f>
+        <v/>
+      </c>
+      <c r="E116" s="7">
+        <f>"Температура газа на выходе Н   "</f>
+        <v/>
+      </c>
+      <c r="F116" s="6">
+        <f>CurrAttrValue(B116, 0)</f>
+        <v/>
+      </c>
+      <c r="G116" s="6">
+        <f>CurrAttrValue(A116, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" ht="20" customHeight="1">
+      <c r="A117" s="5">
+        <f>CONCATENATE($A$2, $A$1, C117, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B117" s="5">
+        <f>CONCATENATE($A$2, $A$1, C117, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C117" s="5">
+        <f>"AI.AI_Tvod_inTO"</f>
+        <v/>
+      </c>
+      <c r="D117" s="6">
+        <f>"90"</f>
+        <v/>
+      </c>
+      <c r="E117" s="7">
+        <f>"Температура воды на входе теплобоменника  "</f>
+        <v/>
+      </c>
+      <c r="F117" s="6">
+        <f>CurrAttrValue(B117, 0)</f>
+        <v/>
+      </c>
+      <c r="G117" s="6">
+        <f>CurrAttrValue(A117, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="35" customHeight="1">
+      <c r="E120" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F115" s="7">
+      <c r="F120" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G115" s="7">
+      <c r="G120" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="116" ht="40" customHeight="1">
-      <c r="E116" s="1">
+    <row r="121" ht="40" customHeight="1">
+      <c r="E121" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F116" s="2">
+      <c r="F121" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G116" s="3">
+      <c r="G121" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="118" ht="20" customHeight="1">
-      <c r="D118" s="4">
+    <row r="123" ht="20" customHeight="1">
+      <c r="D123" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E118" s="4">
+      <c r="E123" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F118" s="4">
+      <c r="F123" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G118" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" ht="20" customHeight="1">
-      <c r="A119" s="5">
-        <f>CONCATENATE($A$2, $A$1, C119, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B119" s="5">
-        <f>CONCATENATE($A$2, $A$1, C119, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C119" s="5">
-        <f>"AI.AI_TpupN"</f>
-        <v/>
-      </c>
-      <c r="D119" s="6">
-        <f>"86"</f>
-        <v/>
-      </c>
-      <c r="E119" s="5">
-        <f>"Температура передней колодки упорного подшипника Н  "</f>
-        <v/>
-      </c>
-      <c r="F119" s="6">
-        <f>CurrAttrValue(B119, 0)</f>
-        <v/>
-      </c>
-      <c r="G119" s="6">
-        <f>CurrAttrValue(A119, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" ht="20" customHeight="1">
-      <c r="A120" s="5">
-        <f>CONCATENATE($A$2, $A$1, C120, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B120" s="5">
-        <f>CONCATENATE($A$2, $A$1, C120, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C120" s="5">
-        <f>"AI.AI_TzupN"</f>
-        <v/>
-      </c>
-      <c r="D120" s="6">
-        <f>"87"</f>
-        <v/>
-      </c>
-      <c r="E120" s="5">
-        <f>"Температура задней колодки упорного подшипника Н  "</f>
-        <v/>
-      </c>
-      <c r="F120" s="6">
-        <f>CurrAttrValue(B120, 0)</f>
-        <v/>
-      </c>
-      <c r="G120" s="6">
-        <f>CurrAttrValue(A120, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" ht="20" customHeight="1">
-      <c r="A121" s="5">
-        <f>CONCATENATE($A$2, $A$1, C121, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B121" s="5">
-        <f>CONCATENATE($A$2, $A$1, C121, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C121" s="5">
-        <f>"AI.AI_Tg_inN"</f>
-        <v/>
-      </c>
-      <c r="D121" s="6">
-        <f>"88"</f>
-        <v/>
-      </c>
-      <c r="E121" s="5">
-        <f>"Температура газа на входе Н   "</f>
-        <v/>
-      </c>
-      <c r="F121" s="6">
-        <f>CurrAttrValue(B121, 0)</f>
-        <v/>
-      </c>
-      <c r="G121" s="6">
-        <f>CurrAttrValue(A121, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" ht="20" customHeight="1">
-      <c r="A122" s="5">
-        <f>CONCATENATE($A$2, $A$1, C122, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B122" s="5">
-        <f>CONCATENATE($A$2, $A$1, C122, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C122" s="5">
-        <f>"AI.AI_Tg_outN"</f>
-        <v/>
-      </c>
-      <c r="D122" s="6">
-        <f>"89"</f>
-        <v/>
-      </c>
-      <c r="E122" s="5">
-        <f>"Температура газа на выходе Н   "</f>
-        <v/>
-      </c>
-      <c r="F122" s="6">
-        <f>CurrAttrValue(B122, 0)</f>
-        <v/>
-      </c>
-      <c r="G122" s="6">
-        <f>CurrAttrValue(A122, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" ht="20" customHeight="1">
-      <c r="A123" s="5">
-        <f>CONCATENATE($A$2, $A$1, C123, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B123" s="5">
-        <f>CONCATENATE($A$2, $A$1, C123, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C123" s="5">
-        <f>"AI.AI_Tvod_inTO"</f>
-        <v/>
-      </c>
-      <c r="D123" s="6">
-        <f>"90"</f>
-        <v/>
-      </c>
-      <c r="E123" s="5">
-        <f>"Температура воды на входе теплобоменника  "</f>
-        <v/>
-      </c>
-      <c r="F123" s="6">
-        <f>CurrAttrValue(B123, 0)</f>
-        <v/>
-      </c>
-      <c r="G123" s="6">
-        <f>CurrAttrValue(A123, 0)</f>
+      <c r="G123" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -3468,7 +3472,7 @@
         <f>"91"</f>
         <v/>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="7">
         <f>"Температура воды на выходе теплобоменника  "</f>
         <v/>
       </c>
@@ -3498,7 +3502,7 @@
         <f>"92"</f>
         <v/>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="7">
         <f>"Температура воздуха под кожухом ГТУ (в выходном воздуховоде)  "</f>
         <v/>
       </c>
@@ -3528,7 +3532,7 @@
         <f>"93"</f>
         <v/>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="7">
         <f>"Температура воздуха в отсеке ГТУ  "</f>
         <v/>
       </c>
@@ -3558,7 +3562,7 @@
         <f>"94"</f>
         <v/>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="7">
         <f>"Температура воздуха в отсеке Н  "</f>
         <v/>
       </c>
@@ -3588,7 +3592,7 @@
         <f>"95"</f>
         <v/>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="7">
         <f>"Температура воздуха в блоке НКУ  "</f>
         <v/>
       </c>
@@ -3618,7 +3622,7 @@
         <f>"96"</f>
         <v/>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="7">
         <f>"Температура масла на входе АВОМ Н  "</f>
         <v/>
       </c>
@@ -3648,7 +3652,7 @@
         <f>"97"</f>
         <v/>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="7">
         <f>"Температура масла на выходе АВОМ Н  "</f>
         <v/>
       </c>
@@ -3678,7 +3682,7 @@
         <f>"98"</f>
         <v/>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="7">
         <f>"Температура масла на входе АВОМ ГТУ  "</f>
         <v/>
       </c>
@@ -3708,7 +3712,7 @@
         <f>"99"</f>
         <v/>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="7">
         <f>"Температура масла на выходе АВОМ ГТУ  "</f>
         <v/>
       </c>
@@ -3738,7 +3742,7 @@
         <f>"100"</f>
         <v/>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="7">
         <f>"Температура воды на выходе утилизатора  "</f>
         <v/>
       </c>
@@ -3768,7 +3772,7 @@
         <f>"101"</f>
         <v/>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="7">
         <f>"Положение ЗсТУТ  "</f>
         <v/>
       </c>
@@ -3798,7 +3802,7 @@
         <f>"102"</f>
         <v/>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="7">
         <f>"Положение ЗсБУТ  "</f>
         <v/>
       </c>
@@ -3811,229 +3815,229 @@
         <v/>
       </c>
     </row>
-    <row r="138" ht="35" customHeight="1">
+    <row r="136" ht="20" customHeight="1">
+      <c r="A136" s="5">
+        <f>CONCATENATE($A$2, $A$1, C136, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B136" s="5">
+        <f>CONCATENATE($A$2, $A$1, C136, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C136" s="5">
+        <f>"AI.AI_Tv_inBB"</f>
+        <v/>
+      </c>
+      <c r="D136" s="6">
+        <f>"103"</f>
+        <v/>
+      </c>
+      <c r="E136" s="7">
+        <f>"Температура воздуха в блок-боксе  "</f>
+        <v/>
+      </c>
+      <c r="F136" s="6">
+        <f>CurrAttrValue(B136, 0)</f>
+        <v/>
+      </c>
+      <c r="G136" s="6">
+        <f>CurrAttrValue(A136, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="20" customHeight="1">
+      <c r="A137" s="5">
+        <f>CONCATENATE($A$2, $A$1, C137, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B137" s="5">
+        <f>CONCATENATE($A$2, $A$1, C137, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C137" s="5">
+        <f>"AI.AI_Lmbd"</f>
+        <v/>
+      </c>
+      <c r="D137" s="6">
+        <f>"104"</f>
+        <v/>
+      </c>
+      <c r="E137" s="7">
+        <f>"Уровень масла в маслобаке ГТУ  "</f>
+        <v/>
+      </c>
+      <c r="F137" s="6">
+        <f>CurrAttrValue(B137, 0)</f>
+        <v/>
+      </c>
+      <c r="G137" s="6">
+        <f>CurrAttrValue(A137, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" ht="20" customHeight="1">
+      <c r="A138" s="5">
+        <f>CONCATENATE($A$2, $A$1, C138, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B138" s="5">
+        <f>CONCATENATE($A$2, $A$1, C138, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C138" s="5">
+        <f>"AI.AI_Vpon"</f>
+        <v/>
+      </c>
+      <c r="D138" s="6">
+        <f>"105"</f>
+        <v/>
+      </c>
       <c r="E138" s="7">
+        <f>"Векторная сумма виброперемещений передней опоры Н  "</f>
+        <v/>
+      </c>
+      <c r="F138" s="6">
+        <f>CurrAttrValue(B138, 0)</f>
+        <v/>
+      </c>
+      <c r="G138" s="6">
+        <f>CurrAttrValue(A138, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" ht="20" customHeight="1">
+      <c r="A139" s="5">
+        <f>CONCATENATE($A$2, $A$1, C139, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B139" s="5">
+        <f>CONCATENATE($A$2, $A$1, C139, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C139" s="5">
+        <f>"AI.AI_Vzon"</f>
+        <v/>
+      </c>
+      <c r="D139" s="6">
+        <f>"106"</f>
+        <v/>
+      </c>
+      <c r="E139" s="7">
+        <f>"Векторная сумма виброперемещений задней опоры Н  "</f>
+        <v/>
+      </c>
+      <c r="F139" s="6">
+        <f>CurrAttrValue(B139, 0)</f>
+        <v/>
+      </c>
+      <c r="G139" s="6">
+        <f>CurrAttrValue(A139, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" ht="20" customHeight="1">
+      <c r="A140" s="5">
+        <f>CONCATENATE($A$2, $A$1, C140, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B140" s="5">
+        <f>CONCATENATE($A$2, $A$1, C140, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C140" s="5">
+        <f>"AI.AI_Lmbn"</f>
+        <v/>
+      </c>
+      <c r="D140" s="6">
+        <f>"107"</f>
+        <v/>
+      </c>
+      <c r="E140" s="7">
+        <f>"Уровень масла в маслобаке Н  "</f>
+        <v/>
+      </c>
+      <c r="F140" s="6">
+        <f>CurrAttrValue(B140, 0)</f>
+        <v/>
+      </c>
+      <c r="G140" s="6">
+        <f>CurrAttrValue(A140, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" ht="20" customHeight="1">
+      <c r="A141" s="5">
+        <f>CONCATENATE($A$2, $A$1, C141, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B141" s="5">
+        <f>CONCATENATE($A$2, $A$1, C141, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C141" s="5">
+        <f>"AI.AI_Qtg"</f>
+        <v/>
+      </c>
+      <c r="D141" s="6">
+        <f>"108"</f>
+        <v/>
+      </c>
+      <c r="E141" s="7">
+        <f>"Расход топливного газа  "</f>
+        <v/>
+      </c>
+      <c r="F141" s="6">
+        <f>CurrAttrValue(B141, 0)</f>
+        <v/>
+      </c>
+      <c r="G141" s="6">
+        <f>CurrAttrValue(A141, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" ht="35" customHeight="1">
+      <c r="E144" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F138" s="7">
+      <c r="F144" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G138" s="7">
+      <c r="G144" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="139" ht="40" customHeight="1">
-      <c r="E139" s="1">
+    <row r="145" ht="40" customHeight="1">
+      <c r="E145" s="1">
         <f>"Срез значений измеряемых параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F139" s="2">
+      <c r="F145" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G139" s="3">
+      <c r="G145" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="141" ht="20" customHeight="1">
-      <c r="D141" s="4">
+    <row r="147" ht="20" customHeight="1">
+      <c r="D147" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E141" s="4">
+      <c r="E147" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F141" s="4">
+      <c r="F147" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G141" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" ht="20" customHeight="1">
-      <c r="A142" s="5">
-        <f>CONCATENATE($A$2, $A$1, C142, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B142" s="5">
-        <f>CONCATENATE($A$2, $A$1, C142, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C142" s="5">
-        <f>"AI.AI_Tv_inBB"</f>
-        <v/>
-      </c>
-      <c r="D142" s="6">
-        <f>"103"</f>
-        <v/>
-      </c>
-      <c r="E142" s="5">
-        <f>"Температура воздуха в блок-боксе  "</f>
-        <v/>
-      </c>
-      <c r="F142" s="6">
-        <f>CurrAttrValue(B142, 0)</f>
-        <v/>
-      </c>
-      <c r="G142" s="6">
-        <f>CurrAttrValue(A142, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" ht="20" customHeight="1">
-      <c r="A143" s="5">
-        <f>CONCATENATE($A$2, $A$1, C143, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B143" s="5">
-        <f>CONCATENATE($A$2, $A$1, C143, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C143" s="5">
-        <f>"AI.AI_Lmbd"</f>
-        <v/>
-      </c>
-      <c r="D143" s="6">
-        <f>"104"</f>
-        <v/>
-      </c>
-      <c r="E143" s="5">
-        <f>"Уровень масла в маслобаке ГТУ  "</f>
-        <v/>
-      </c>
-      <c r="F143" s="6">
-        <f>CurrAttrValue(B143, 0)</f>
-        <v/>
-      </c>
-      <c r="G143" s="6">
-        <f>CurrAttrValue(A143, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" ht="20" customHeight="1">
-      <c r="A144" s="5">
-        <f>CONCATENATE($A$2, $A$1, C144, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B144" s="5">
-        <f>CONCATENATE($A$2, $A$1, C144, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C144" s="5">
-        <f>"AI.AI_Vpon"</f>
-        <v/>
-      </c>
-      <c r="D144" s="6">
-        <f>"105"</f>
-        <v/>
-      </c>
-      <c r="E144" s="5">
-        <f>"Векторная сумма виброперемещений передней опоры Н  "</f>
-        <v/>
-      </c>
-      <c r="F144" s="6">
-        <f>CurrAttrValue(B144, 0)</f>
-        <v/>
-      </c>
-      <c r="G144" s="6">
-        <f>CurrAttrValue(A144, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" ht="20" customHeight="1">
-      <c r="A145" s="5">
-        <f>CONCATENATE($A$2, $A$1, C145, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B145" s="5">
-        <f>CONCATENATE($A$2, $A$1, C145, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C145" s="5">
-        <f>"AI.AI_Vzon"</f>
-        <v/>
-      </c>
-      <c r="D145" s="6">
-        <f>"106"</f>
-        <v/>
-      </c>
-      <c r="E145" s="5">
-        <f>"Векторная сумма виброперемещений задней опоры Н  "</f>
-        <v/>
-      </c>
-      <c r="F145" s="6">
-        <f>CurrAttrValue(B145, 0)</f>
-        <v/>
-      </c>
-      <c r="G145" s="6">
-        <f>CurrAttrValue(A145, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" ht="20" customHeight="1">
-      <c r="A146" s="5">
-        <f>CONCATENATE($A$2, $A$1, C146, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B146" s="5">
-        <f>CONCATENATE($A$2, $A$1, C146, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C146" s="5">
-        <f>"AI.AI_Lmbn"</f>
-        <v/>
-      </c>
-      <c r="D146" s="6">
-        <f>"107"</f>
-        <v/>
-      </c>
-      <c r="E146" s="5">
-        <f>"Уровень масла в маслобаке Н  "</f>
-        <v/>
-      </c>
-      <c r="F146" s="6">
-        <f>CurrAttrValue(B146, 0)</f>
-        <v/>
-      </c>
-      <c r="G146" s="6">
-        <f>CurrAttrValue(A146, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" ht="20" customHeight="1">
-      <c r="A147" s="5">
-        <f>CONCATENATE($A$2, $A$1, C147, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B147" s="5">
-        <f>CONCATENATE($A$2, $A$1, C147, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C147" s="5">
-        <f>"AI.AI_Qtg"</f>
-        <v/>
-      </c>
-      <c r="D147" s="6">
-        <f>"108"</f>
-        <v/>
-      </c>
-      <c r="E147" s="5">
-        <f>"Расход топливного газа  "</f>
-        <v/>
-      </c>
-      <c r="F147" s="6">
-        <f>CurrAttrValue(B147, 0)</f>
-        <v/>
-      </c>
-      <c r="G147" s="6">
-        <f>CurrAttrValue(A147, 0)</f>
+      <c r="G147" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -4054,7 +4058,7 @@
         <f>"109"</f>
         <v/>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="7">
         <f>"Относительная влажность наружного воздуха  "</f>
         <v/>
       </c>
@@ -4084,7 +4088,7 @@
         <f>"110"</f>
         <v/>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="7">
         <f>"Температура наружного воздуха   "</f>
         <v/>
       </c>
@@ -4114,7 +4118,7 @@
         <f>"111"</f>
         <v/>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="7">
         <f>"Частота вращения ВОД1  "</f>
         <v/>
       </c>
@@ -4144,7 +4148,7 @@
         <f>"112"</f>
         <v/>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="7">
         <f>"Частота вращения ВОД2  "</f>
         <v/>
       </c>
@@ -4174,7 +4178,7 @@
         <f>"113"</f>
         <v/>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="7">
         <f>"Полное давление газа за ТНД  "</f>
         <v/>
       </c>
@@ -4204,7 +4208,7 @@
         <f>"114"</f>
         <v/>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="7">
         <f>"Давление масла на выходе из ГТУ  "</f>
         <v/>
       </c>
@@ -4234,7 +4238,7 @@
         <f>"115"</f>
         <v/>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="7">
         <f>"Давление газа перед Н  "</f>
         <v/>
       </c>
@@ -4264,7 +4268,7 @@
         <f>"116"</f>
         <v/>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="7">
         <f>"Давление масла на смазку подшипников нагнетателя  "</f>
         <v/>
       </c>
@@ -4294,7 +4298,7 @@
         <f>"117"</f>
         <v/>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="7">
         <f>"Перепад давления масло-газ в системе уплотнений Н  "</f>
         <v/>
       </c>
@@ -4324,7 +4328,7 @@
         <f>"118"</f>
         <v/>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="7">
         <f>"Температура масла в маслобаке Н  "</f>
         <v/>
       </c>
@@ -4354,7 +4358,7 @@
         <f>"119"</f>
         <v/>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="7">
         <f>"Давление масла на входе АВОМ (Н)  "</f>
         <v/>
       </c>
@@ -4367,49 +4371,183 @@
         <v/>
       </c>
     </row>
-    <row r="161" ht="35" customHeight="1">
+    <row r="159" ht="20" customHeight="1">
+      <c r="A159" s="5">
+        <f>CONCATENATE($A$2, $A$1, C159, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B159" s="5">
+        <f>CONCATENATE($A$2, $A$1, C159, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C159" s="5">
+        <f>"AI.AI_Lmacc"</f>
+        <v/>
+      </c>
+      <c r="D159" s="6">
+        <f>"120"</f>
+        <v/>
+      </c>
+      <c r="E159" s="7">
+        <f>"Уровень масла в аккумуляторе масла  "</f>
+        <v/>
+      </c>
+      <c r="F159" s="6">
+        <f>CurrAttrValue(B159, 0)</f>
+        <v/>
+      </c>
+      <c r="G159" s="6">
+        <f>CurrAttrValue(A159, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" ht="20" customHeight="1">
+      <c r="A160" s="5">
+        <f>CONCATENATE($A$2, $A$1, C160, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B160" s="5">
+        <f>CONCATENATE($A$2, $A$1, C160, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C160" s="5">
+        <f>"AI.AI_dPatm_Pzv"</f>
+        <v/>
+      </c>
+      <c r="D160" s="6">
+        <f>"121"</f>
+        <v/>
+      </c>
+      <c r="E160" s="7">
+        <f>"Перепад Рв между атмосферой и зоной обдува трансмиссии  "</f>
+        <v/>
+      </c>
+      <c r="F160" s="6">
+        <f>CurrAttrValue(B160, 0)</f>
+        <v/>
+      </c>
+      <c r="G160" s="6">
+        <f>CurrAttrValue(A160, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" ht="20" customHeight="1">
+      <c r="A161" s="5">
+        <f>CONCATENATE($A$2, $A$1, C161, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B161" s="5">
+        <f>CONCATENATE($A$2, $A$1, C161, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C161" s="5">
+        <f>"AI.AI_Pvod_inTO"</f>
+        <v/>
+      </c>
+      <c r="D161" s="6">
+        <f>"122"</f>
+        <v/>
+      </c>
       <c r="E161" s="7">
-        <f>"должность"</f>
-        <v/>
-      </c>
-      <c r="F161" s="7">
-        <f>"ФИО"</f>
-        <v/>
-      </c>
-      <c r="G161" s="7">
-        <f>"подпись"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" ht="40" customHeight="1">
-      <c r="E162" s="1">
-        <f>"Срез значений измеряемых параметров ГПА3 на "</f>
-        <v/>
-      </c>
-      <c r="F162" s="2">
-        <f>F1</f>
-        <v/>
-      </c>
-      <c r="G162" s="3">
-        <f>G1</f>
+        <f>"Давление воды на входе теплообменника  "</f>
+        <v/>
+      </c>
+      <c r="F161" s="6">
+        <f>CurrAttrValue(B161, 0)</f>
+        <v/>
+      </c>
+      <c r="G161" s="6">
+        <f>CurrAttrValue(A161, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" ht="20" customHeight="1">
+      <c r="A162" s="5">
+        <f>CONCATENATE($A$2, $A$1, C162, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B162" s="5">
+        <f>CONCATENATE($A$2, $A$1, C162, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C162" s="5">
+        <f>"AI.AI_Pvod_outTO"</f>
+        <v/>
+      </c>
+      <c r="D162" s="6">
+        <f>"123"</f>
+        <v/>
+      </c>
+      <c r="E162" s="7">
+        <f>"Давление воды на выходе теплообменника  "</f>
+        <v/>
+      </c>
+      <c r="F162" s="6">
+        <f>CurrAttrValue(B162, 0)</f>
+        <v/>
+      </c>
+      <c r="G162" s="6">
+        <f>CurrAttrValue(A162, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" ht="20" customHeight="1">
+      <c r="A163" s="5">
+        <f>CONCATENATE($A$2, $A$1, C163, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B163" s="5">
+        <f>CONCATENATE($A$2, $A$1, C163, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C163" s="5">
+        <f>"AI.AI_dPtg_FO"</f>
+        <v/>
+      </c>
+      <c r="D163" s="6">
+        <f>"124"</f>
+        <v/>
+      </c>
+      <c r="E163" s="7">
+        <f>"Перепад давления на фильтрах топливного газа  "</f>
+        <v/>
+      </c>
+      <c r="F163" s="6">
+        <f>CurrAttrValue(B163, 0)</f>
+        <v/>
+      </c>
+      <c r="G163" s="6">
+        <f>CurrAttrValue(A163, 0)</f>
         <v/>
       </c>
     </row>
     <row r="164" ht="20" customHeight="1">
-      <c r="D164" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E164" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F164" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G164" s="4">
-        <f>"Ед. измерения"</f>
+      <c r="A164" s="5">
+        <f>CONCATENATE($A$2, $A$1, C164, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B164" s="5">
+        <f>CONCATENATE($A$2, $A$1, C164, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C164" s="5">
+        <f>"AI.AI_Patm"</f>
+        <v/>
+      </c>
+      <c r="D164" s="6">
+        <f>"125"</f>
+        <v/>
+      </c>
+      <c r="E164" s="7">
+        <f>"Атмосферное давление наружного воздуха  "</f>
+        <v/>
+      </c>
+      <c r="F164" s="6">
+        <f>CurrAttrValue(B164, 0)</f>
+        <v/>
+      </c>
+      <c r="G164" s="6">
+        <f>CurrAttrValue(A164, 0)</f>
         <v/>
       </c>
     </row>
@@ -4423,15 +4561,15 @@
         <v/>
       </c>
       <c r="C165" s="5">
-        <f>"AI.AI_Lmacc"</f>
+        <f>"AI.AI_dPv_VOU"</f>
         <v/>
       </c>
       <c r="D165" s="6">
-        <f>"120"</f>
-        <v/>
-      </c>
-      <c r="E165" s="5">
-        <f>"Уровень масла в аккумуляторе масла  "</f>
+        <f>"126"</f>
+        <v/>
+      </c>
+      <c r="E165" s="7">
+        <f>"Перепад Рв на фильтрах воздушных в блоке ВОУ  "</f>
         <v/>
       </c>
       <c r="F165" s="6">
@@ -4443,183 +4581,49 @@
         <v/>
       </c>
     </row>
-    <row r="166" ht="20" customHeight="1">
-      <c r="A166" s="5">
-        <f>CONCATENATE($A$2, $A$1, C166, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B166" s="5">
-        <f>CONCATENATE($A$2, $A$1, C166, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C166" s="5">
-        <f>"AI.AI_dPatm_Pzv"</f>
-        <v/>
-      </c>
-      <c r="D166" s="6">
-        <f>"121"</f>
-        <v/>
-      </c>
-      <c r="E166" s="5">
-        <f>"Перепад Рв между атмосферой и зоной обдува трансмиссии  "</f>
-        <v/>
-      </c>
-      <c r="F166" s="6">
-        <f>CurrAttrValue(B166, 0)</f>
-        <v/>
-      </c>
-      <c r="G166" s="6">
-        <f>CurrAttrValue(A166, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" ht="20" customHeight="1">
-      <c r="A167" s="5">
-        <f>CONCATENATE($A$2, $A$1, C167, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B167" s="5">
-        <f>CONCATENATE($A$2, $A$1, C167, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C167" s="5">
-        <f>"AI.AI_Pvod_inTO"</f>
-        <v/>
-      </c>
-      <c r="D167" s="6">
-        <f>"122"</f>
-        <v/>
-      </c>
-      <c r="E167" s="5">
-        <f>"Давление воды на входе теплообменника  "</f>
-        <v/>
-      </c>
-      <c r="F167" s="6">
-        <f>CurrAttrValue(B167, 0)</f>
-        <v/>
-      </c>
-      <c r="G167" s="6">
-        <f>CurrAttrValue(A167, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" ht="20" customHeight="1">
-      <c r="A168" s="5">
-        <f>CONCATENATE($A$2, $A$1, C168, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B168" s="5">
-        <f>CONCATENATE($A$2, $A$1, C168, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C168" s="5">
-        <f>"AI.AI_Pvod_outTO"</f>
-        <v/>
-      </c>
-      <c r="D168" s="6">
-        <f>"123"</f>
-        <v/>
-      </c>
-      <c r="E168" s="5">
-        <f>"Давление воды на выходе теплообменника  "</f>
-        <v/>
-      </c>
-      <c r="F168" s="6">
-        <f>CurrAttrValue(B168, 0)</f>
-        <v/>
-      </c>
-      <c r="G168" s="6">
-        <f>CurrAttrValue(A168, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" ht="20" customHeight="1">
-      <c r="A169" s="5">
-        <f>CONCATENATE($A$2, $A$1, C169, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B169" s="5">
-        <f>CONCATENATE($A$2, $A$1, C169, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C169" s="5">
-        <f>"AI.AI_dPtg_FO"</f>
-        <v/>
-      </c>
-      <c r="D169" s="6">
-        <f>"124"</f>
-        <v/>
-      </c>
-      <c r="E169" s="5">
-        <f>"Перепад давления на фильтрах топливного газа  "</f>
-        <v/>
-      </c>
-      <c r="F169" s="6">
-        <f>CurrAttrValue(B169, 0)</f>
-        <v/>
-      </c>
-      <c r="G169" s="6">
-        <f>CurrAttrValue(A169, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" ht="20" customHeight="1">
-      <c r="A170" s="5">
-        <f>CONCATENATE($A$2, $A$1, C170, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B170" s="5">
-        <f>CONCATENATE($A$2, $A$1, C170, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C170" s="5">
-        <f>"AI.AI_Patm"</f>
-        <v/>
-      </c>
-      <c r="D170" s="6">
-        <f>"125"</f>
-        <v/>
-      </c>
-      <c r="E170" s="5">
-        <f>"Атмосферное давление наружного воздуха  "</f>
-        <v/>
-      </c>
-      <c r="F170" s="6">
-        <f>CurrAttrValue(B170, 0)</f>
-        <v/>
-      </c>
-      <c r="G170" s="6">
-        <f>CurrAttrValue(A170, 0)</f>
+    <row r="168" ht="35" customHeight="1">
+      <c r="E168" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F168" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G168" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" ht="40" customHeight="1">
+      <c r="E169" s="1">
+        <f>"Срез значений измеряемых параметров ГПА3 на "</f>
+        <v/>
+      </c>
+      <c r="F169" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G169" s="3">
+        <f>G1</f>
         <v/>
       </c>
     </row>
     <row r="171" ht="20" customHeight="1">
-      <c r="A171" s="5">
-        <f>CONCATENATE($A$2, $A$1, C171, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B171" s="5">
-        <f>CONCATENATE($A$2, $A$1, C171, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C171" s="5">
-        <f>"AI.AI_dPv_VOU"</f>
-        <v/>
-      </c>
-      <c r="D171" s="6">
-        <f>"126"</f>
-        <v/>
-      </c>
-      <c r="E171" s="5">
-        <f>"Перепад Рв на фильтрах воздушных в блоке ВОУ  "</f>
-        <v/>
-      </c>
-      <c r="F171" s="6">
-        <f>CurrAttrValue(B171, 0)</f>
-        <v/>
-      </c>
-      <c r="G171" s="6">
-        <f>CurrAttrValue(A171, 0)</f>
+      <c r="D171" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E171" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F171" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G171" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -4640,7 +4644,7 @@
         <f>"127"</f>
         <v/>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="7">
         <f>"Температура в НКУ  "</f>
         <v/>
       </c>
@@ -4670,7 +4674,7 @@
         <f>"128"</f>
         <v/>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="7">
         <f>"Контроль напряжения САУ Ввод 1 (~220)  "</f>
         <v/>
       </c>
@@ -4700,7 +4704,7 @@
         <f>"129"</f>
         <v/>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="7">
         <f>"Контроль напряжения САУ Ввод 2 (=220)  "</f>
         <v/>
       </c>
@@ -4730,7 +4734,7 @@
         <f>"130"</f>
         <v/>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="7">
         <f>"Контроль напряжения САУ Ввод 3 (=24)  "</f>
         <v/>
       </c>
@@ -4760,7 +4764,7 @@
         <f>"131"</f>
         <v/>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="7">
         <f>"Контроль напряжения САУ Ввод 4 (=220)  "</f>
         <v/>
       </c>
@@ -4790,7 +4794,7 @@
         <f>"132"</f>
         <v/>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="7">
         <f>"Измерение крутящего момента от БИКМ М-106М  "</f>
         <v/>
       </c>
@@ -4804,15 +4808,15 @@
       </c>
     </row>
     <row r="180" ht="35" customHeight="1">
-      <c r="E180" s="7">
+      <c r="E180" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G180" s="7">
+      <c r="G180" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
